--- a/utilities/Excel_Sheets/Products/GRPHOME.xlsx
+++ b/utilities/Excel_Sheets/Products/GRPHOME.xlsx
@@ -562,11 +562,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -606,11 +606,11 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D4" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -650,11 +650,11 @@
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D6" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -708,11 +708,11 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D8" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -766,11 +766,11 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D10" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D12" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -882,11 +882,11 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D14" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -940,11 +940,11 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D16" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>3</v>
@@ -1108,7 +1108,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -1223,12 +1223,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ref="C4:C10" ca="1" si="0">TODAY()</f>
+        <v>43266</v>
       </c>
       <c r="D4" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ref="D4:D10" ca="1" si="1">TODAY()-10</f>
+        <v>43256</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -1266,12 +1266,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D5" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43256</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -1309,12 +1309,12 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D6" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43256</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -1352,12 +1352,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D7" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43256</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
@@ -1395,12 +1395,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D8" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43256</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -1438,12 +1438,12 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D9" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43256</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -1481,12 +1481,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43266</v>
       </c>
       <c r="D10" s="6">
-        <f ca="1">TODAY()-10</f>
-        <v>43252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43256</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
